--- a/CourseBackend/data/randomdata.xlsx
+++ b/CourseBackend/data/randomdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="0" windowWidth="22092" windowHeight="9972"/>
+    <workbookView xWindow="2844" yWindow="0" windowWidth="22092" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58,9 +54,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,10 +338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -352,50 +349,64 @@
     <col min="1" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f ca="1">CONCATENATE(RANDBETWEEN(2019,2020),"/",RANDBETWEEN(1,12),"/",RANDBETWEEN(1,28)," ", RANDBETWEEN(0,23),":",RANDBETWEEN(0,59),":",RANDBETWEEN(0,59))</f>
-        <v>2020/11/1 22:25:33</v>
+        <v>2019/10/22 13:57:1</v>
       </c>
       <c r="B1">
         <f ca="1">INDEX($G$1:$G$7,RANDBETWEEN(1,ROWS($G$1:$G$7)),1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="2">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="J1">
+        <v>24</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>J1*60+K1</f>
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>